--- a/500all/speech_level/speeches_CHRG-114hhrg20455.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20455.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Mr. Deutch, the ranking member, for 5 minutes each for our opening statements, I will then recognize other members seeking recognition for 1 minute. We will then hear from our witnesses. And you will notice an empty seat, but she is coming right over, getting through security.    Without objection, the witnesses' prepared statements will be made a part of the record. Members may have 5 days to insert statements and questions for the record subject to the length limitation in the rules.    And the Chair now recognizes herself for 5 minutes.    This is the third hearing of our subcommittee that we have had on Egypt in a little over a year, demonstrating the importance of and our subcommittee's commitment to Egypt's role in a volatile region, as well as the concern of our members that they have on current U.S. policy toward our ally.    The political, economic, and security challenges that Egypt is facing right now, they are numerous, they are interdependent. It is extremely difficult, for example, for President Sisi to make necessary structural reforms to Egypt's economy without potentially undermining the fragile political support he is leaning on to bring much-needed stability to the country.    Conversely, if these economic reforms are not made soon, we may see a return of the unrest that we saw on Egyptian streets not too long ago. And it is in this context that Egypt is facing growing security threats from an expanding ISIS and its Sinai Province affiliate, from al-Qaeda-linked groups, from militias, from extremists in Libya, and from particularly violent factions of the Muslim Brotherhood. Sinai Province has formed terrorist cells that are targeting both Egyptian and Israeli military personnel and civilians, and has already killed hundreds of Egyptian soldiers is continuing to target the peacekeeping operations or the MFO, Multinational Force of Observers in the Sinai, prompting the Pentagon to reposition U.S. troops and reconsider its presence there.    There is more and more evidence that ISIS is attempting to link its operations in the Sinai and eastern Egypt to its presence in the Western Desert that sits along the extremely porous border with Libya. And there are growing reports of increased activity in southern Egypt and the Nile Valley, including in greater Cairo, which has seen IEDs and shootings like the one that claimed the lives of eight Egyptian policemen last month.    While Egypt has been trying to keep up with these threats, it is increasingly clear that Egypt must also adopt a counterinsurgency approach that will allow it to get a handle on the problem before it gets worse.    While the security situation remains a high priority, I am extremely concerned by the government's attitude toward human rights, its crackdowns on civil society, its quashing of dissent. I was disappointed to see that the government froze the assets of yet another NGO just yesterday as part of an ongoing case which began in 2011 and targeted U.S. NGOs like IRI, whose president joins us here today.    Forty-three NGO workers in this case were unjustly convicted in 2013, as we all remember, and I continue to call on President Sisi to do everything in his power, including working with the Egyptian Parliament and with the judicial system to find a way to pardon these workers as soon as possible. The government needs to find a way to open up civil society and allow Egyptians to participate and thrive in public life or risk exacerbating the very problems it is trying to avoid.    In Egypt, the economy is perhaps the biggest challenge of all. Infusions of cash from the Gulf States, especially from Saudi Arabia, as well as loans from the World Bank, the IMF, and others, have managed to keep the economy afloat for the time being. But these investments aren't likely to stimulate growth in the long term, and the government has to make difficult structural reforms like reducing the bloated public payroll and passing the long-promised value-added tax. Unemployment, especially among youth, remains high, and around 60 percent of the population is poor and living on subsidies.    One bright spot on the economy horizon has been the Egyptian-American Enterprise Fund, which Congress authorized in 2012 and has been successfully investing in Egypt's private sector to create jobs and support sustainable development.    The Enterprise Fund, as with all the aid that Congress has appropriated, is an example of how much the United States wants to help Egypt as both an ally and a strong supporter of peace in that troubled region. But the Egyptian Government also needs to help us help them, and that includes allowing our Economic Support Funds, or ESF monies, to be programmed. As of March 31, there is a backlog of approximately $900 million in ESF for Egypt because the government has held up permits for our implementing partners on everything from democracy and governance to education and health care.    That is why I was happy to sign a letter this month, alongside Chairman Royce, Ranking Member Engel, and the co-chairs of the Tunisia Caucus, asking the Secretary of State to reprogram up to $20 million of this money for Tunisia. This is not meant to be a slight against Egypt, but it makes little sense to continue letting these funds sit in the pipeline when they can be spent somewhere else. Someplace like Tunisia, which is in desperate need of the funds and is willing to let us help.    Egypt is an important strategic ally that is struggling on a number of fronts, and as we discuss the challenges and opportunities for U.S. policy here today, I continue to believe that the best way to help is through encouragement and assistance as a friend.    And with that, I am pleased to yield to the ranking member, Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you. Thank you, Madam Chairman, and thanks for our witnesses for appearing today.    First, I want to thank you, Madam Chairman, and Mr. Connolly for commissioning a series of GAO reports on our assistance to Egypt. The most recent report issued in April highlighted some of the serious challenges faced by Department of Defense and the Department of State in securing compliance from the Egyptian Government on end-use monitoring of our assistance. And I find this troubling. When we work together in partnership with the government, that government should not be hindering our ability to ensure that our assistance is going to where it is meant to go and doing what it is meant to do.    Second, I want to unequivocally state that I value the U.S.-Egypt relationship. I value Egypt's role in the region. I want to see the Egyptian people prosper. And I particularly want to thank the Egyptian Foreign Ministry for the condolences it sent to the victims of the horrific terror attack in the chairman and my home State just days ago.    But it is becoming increasingly difficult to discuss the U.S.-Egypt relationship outside its security context, and so while I have supported and I continue to support the Sisi government and the President's commitment to fighting terror and keeping peace in the region, I am quite troubled by the direction of the country when it comes to civil society and human rights. I do understand that it can be challenging to balance security and human rights.    Egypt is coming out of a period of great turmoil. As Egypt's leaders look around the region, they see numerous threats to stability, and there is no doubt that we share our Egyptian partners' commitment to preventing ISIS and its affiliates from dominating Sinai, but I urge our friends not to silence the discourse on human rights. Engage with civil society, democracy, and human right activists. Work together. Have the tough conversations. A lack of inclusive governing will yield greater instability.    One area I am deeply concerned about is the foreign funding of the NGOs' case. Now, this subcommittee has held many hearings on the arrest, trial, and conviction of the 43 NGO employees. Mr. Green, you have been present for several of those hearings. The idea that the government is now going to reopen the NGO trial and add new defendants is deeply disturbing. The only reason this case should be reopened is to pardon each and every one of the 43 individuals. And I want to commend the chair for continued advocacy on behalf of those who were so wrongfully convicted in this case.    President Sisi has been tasked with the difficult job of reviving Egypt's economy after years of mismanagement. I want to commend him for taking seriously recommendations for reform from the World Bank and the IMF. Last year, the economy grew at its fastest rate since 2010. Buoyed by generous financial support from the gulf, Egypt has found some economic relief. But diminished foreign currency reserves are making it increasingly difficult to import fuel and food, and water shortages are beginning to impact rural areas. The government must continue to work with international financial institutions to push ahead with necessary reforms to meet these challenges.    On the security front, Egypt faces dangerous threats from the Sinai. I commend the Egypt military for its commitment to rooting out terrorism and to taking seriously the need to improve government services and infrastructure for the people of Sinai.    I extend condolences to the dozens of Egyptian soldiers and their families who have lost their lives fighting this terrorism, and President Sisi deserves to be commended for speaking out against violent Islamic extremism.    In addition, I want to thank the Egyptian Government for its continued cooperation with Israel in the Sinai and its continuing efforts to prevent Hamas from using tunnels to smuggle dangerous weapons to Gaza.    President Sisi has made clear his interest in brokering peace between Israel and the Palestinians, and both have welcomed his involvement in the process with trust-building on both sides. He can be a strong voice for two states living side by side in peace and security.    Our $1.3 billion of security assistance to Egypt is critical in the fight against ISIS both in the Sinai and in Libya. The fragile political situation in Libya has created space for ISIS to use Libya as a training ground for its fighters. To that end, assisting Egypt in controlling its 1,100 kilometer border with Libya is essential to preventing ISIS fighters from launching cross-border attacks or using Egypt as a transit point to the greater Middle East.    I applaud the administration's recognition of the need to refocus our assistance on counterterrorism. The threats facing Egypt are not countered with tanks and planes alone but with a strong intelligence apparatus and regional and bilateral intelligence-sharing, and we have a real opportunity here to help Egypt confront and root out terrorism.    I want to see the people of Egypt succeed. I want to see the future of Egypt that so many millions poured into the streets demanding. I believe President Sisi wants his country and his people to thrive, but to do so will take real political will to confront terrorism to reform the economy and to give space for civil society to grow and to thrive. These are not easy tasks, nor are they accomplished without the support of the United States.    And I look to our witnesses today to help us better understand how we can be an effective partner for Egypt while continuing to advocate for the basic human rights and values that this country was founded upon. And with that, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Madam Chairman, and thank you for our collaboration on the GAO report our friend Deutch cited.    I think, you know, the relationship with Egypt is a critical relationship. It has got to be one we work out. But American patience is not unlimited, and the Egyptian leverage on the relationship is also not unlimited. There is a desire in this country and a growing desire in this body to hold the current Egyptian Government accountable for human rights violations, accountable for security infringements, accountable for how it treats civil society, especially the NGOs we have worked with.    I met with a lot of those NGOs when I was in Cairo, and I think the Egyptian Government was counting on the United States once the Americans got out of the country to frankly wash their hands of the Egyptian staff and volunteers of these NGOs. That is not the case, and I hope this hearing makes that very clear. And I know Ambassador Green is going to make that point. We stand by those brave young men and women who were trying to make for a better society in their own country, and I know we are going to hear more about that in this hearing. Thank you, Madam Chairman.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much for holding this hearing, and I appreciate you and the ranking member and the work that you have put into this.    Let me just note that I am a co-chairman with the Egyptian Caucus, and as such I have been to Egypt a number of times in recent days. And let me just state for the record that I believe that President el-Sisi and the democratic people in Egypt who want to have a legitimate democratic government are under attack by forces that would murder them.    So whatever we are doing when we are talking about Egypt, let's understand we are talking about people who are fighting forces that would murder them and create a caliphate that would be allied with terrorists. In fact, if President el-Sisi and his efforts are defeated, you could expect a collapse of resistance to this radical Islamic terrorist movement that threatens the world.    They are at an equivalent of where we were at immediately after Pearl Harbor. The fact is what did we do when we were under attack? Yes, there were things that we would never tolerate in our society today. We put large numbers of American citizens, Japanese-Americans in camps. Yes, that did not indicate what type of government, what type of country we had, but it did indicate that we were at war with an enemy that had murdered our own people and would continue to do so.    That is what is going on in Egypt today. Those people are on the front lines. President el-Sisi and his democratic allies and the moderate Muslim community there are under attack by the very same terrorists that would again create a caliphate and threaten the entire world. We have faced this terrorism here. We have faced it in Orlando. We have faced it in San Bernardino. We have faced it at the Boston Marathon.    This radical Islamic terrorism threat to the world is something that we need to recognize. And we need to recognize that people like President el-Sisi and the good people of Egypt are on the front lines, and we need to back them as much as we can so that we can--because we know if they lose, we lose.    Thank you very much, Madam Chairman.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Madam Chair, I thank the witnesses for being here, and I would like to hear what they have to say so I yield back to you.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. No comment.</t>
   </si>
   <si>
@@ -124,18 +106,12 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Very good. Thank you, Ambassador Green.    Mr. Awad.</t>
   </si>
   <si>
-    <t>Awad</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Awad. Madam Chairperson, Ranking Member Deutch, members of the subcommittee, thank you for this opportunity to be here to talk about security in Egypt. In fact, I have recently returned from a long research trip to that country where we have met with colleagues, top security officials, and went to areas like the Western Desert and Suez Canal area to see the situation there on the ground for ourselves. I am going to provide a threat assessment of the situation in Egypt with some relevant recommendations.    The most important thing to understand is that Egypt is facing what is the deadliest and most lethal, complex insurgency in its modern history. Since the Muslim Brotherhood was ousted from power in July 2013, at least 900 security service members lost their lives to an array of terrorist groups seeking to topple the government. The threat in Egypt comes from three different geographic theaters and three different types of groups.    First, there is northeastern Sinai where Islamic State-affiliated militants wage insurgency against the Egyptian Government and poses severe threat to Egypt and Israel.    The second is in the Nile Valley, the heart of Egypt, where 97 percent of the population lives. There, also Islamic State-affiliated elements, some al-Qaeda elements, although small in number, and other violent Islamist groups suspected to be affiliated with some members inside the Muslim Brotherhood, also seek to topple the government there.    Finally, the Western Desert with the vast border with Libya, the Islamic State is attempting to build a presence there.    Let me focus a little bit on the situation in Sinai. You will find in my written testimony detailed information on the Nile Valley and the Western Desert. The situation in the Sinai continues to be quite challenging. Since the fall of 2014, the local jihadist group called Ansar Bayt al-Maqdis, or the Champions or Supporters of Jerusalem, saw its capabilities increase significantly as it pledged allegiance to the Islamic State. Since then, they were able to launch large-scale defensives on the ground, culminating in a July 1, 2015, attack that attempted to hold parts of the city called Sheikh Zuweid in North Sinai. Only after a 12-hour-plus battle and the intervention of Egyptian F-16s was the jihadist threat neutralized.    Since then, Egyptians launched a massive counteroffensive that has had some successes. It should be noted that the jihadists in North Sinai do not control any population centers. Also, their areas of operation have largely been contained. Despite these successes, they have shifted their tactics and have used more IEDs and focused on terrorist attacks like the downing of the Russian airliner in October 2015. As a result, the first quarter of 2016 is the deadliest 3 months on record for Egyptian troops in North Sinai. The frequency of attacks has also increased, but again, they have not been back to the same quality of capabilities that they had prior to July.    Quickly, on the Nile Valley and the Western Desert, the most important things to understand there is that the situation is comparatively better compared to the Sinai. With that being said, although the government has had great successes in the Nile Valley, cracking down on some of the violent Islamists connected to the Muslim Brotherhood and al-Qaeda, the Islamic state has recently been attempting to bring armed insurgency closer to Cairo. However, these attempts have been thus far checked.    And finally, of course, in the Western Desert smugglers continue to operate, and as pressure increases against the Islamic State in Libya, they are more likely going to look more into the Western Desert to find ways to entrench themselves there.    Finally, let me offer some recommendations. I think for these reasons a continued security relationship with Egypt is of course important for U.S. strategic interests in the region. However, the relationship should reflect the changing nature of the challenges Egypt faces in confronting asymmetric threats from non-state actors and advance U.S. interests. The Obama administration announced that starting in Fiscal Year 2018 the U.S. will channel FMF funds toward procurement in four categories. Counterterrorism, border, maritime, and Sinai security is a good basis for the future of the FMF program. This pathway for updating U.S.-Egypt cooperation is sound and will require close coordination and support between Congress and the administration in order to implement it effectively.    The U.S.-Egypt relationship requires new anchors that go beyond security but also requires updating the security relationship. It should be built on mutual trust, respect, and frankness. The United States should encourage Cairo to implement a comprehensive counterinsurgency strategy in the Sinai that integrates technologies and training with economic development and tribal outreach in order to effectively defeat terrorist elements, all while minimizing collateral damage. Both governments should ensure that defense officials are able to discuss issues related to counterinsurgency frankly and be granted the access necessary to adequately provide training and assistance.    More cooperation is also needed with Egypt's General Intelligence Directorate and to the Ministry of Interior, specifically the State Security. These institutions are key actors in Egypt's fight against terror and thus warrant this further engagement.    Egypt should implement a comprehensive counterterrorism and countering violent extremism strategy that in part cracks down on human rights abuses and improves conditions in prisons to combat radicalization. All assistant should be on the basis of advancing U.S. interests in providing the necessary weapons and training that can help Egypt address its security challenges in ways that align with U.S. interests and values.    Finally, U. S. security cooperation and assistance with Egypt should be conditioned on Egypt's performance in the security field itself instead of political and economic reforms. I look forward to getting into more details in the Q&amp;A. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Mr. Awad, thank you so much.    Ms. Hawthorne.</t>
   </si>
   <si>
-    <t>Hawthorne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hawthorne. Good morning. Thank you, Madam Chair, Ranking Member Deutch, distinguished members of the committee. I am honored to be here today to testify alongside my esteemed colleagues.    I would also like to commend the chair and Congressman Connolly for their leadership on a series of crucially important GAO reports that have shed light on U.S. aid to Egypt and for the subcommittee's leadership on holding regular hearings on Egypt over the past few years.    With your permission, I will summarize the key points of my written testimony.</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairman, and----</t>
   </si>
   <si>
@@ -251,9 +224,6 @@
   </si>
   <si>
     <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman. And I appreciate Chairman Ros-Lehtinen holding this hearing. I think that this is a very important subject.    And I agree with a lot of the concerns about what is going on in Egyptian society, but I also don't want to view the Muslim Brotherhood with any type of rose-colored glasses. I think that we should designate them as a foreign terrorist organization. We have passed it out of one House committee already, and it is awaiting Floor action. I think that they are not part of the solution in the Middle East but part of the problem.    So let me ask you, putting aside the problems that are going on in Egyptian society, Ambassador Green, is President el-Sisi a more reliable ally to the United States in combating Islamist terror than a Muslim Brotherhood-led government would be?    Ambassador Green. Thank you, Congressman. I am not sure I am qualified to comment necessarily on the security situation, but what I can comment on is very clearly former President Morsi and the Muslim Brotherhood were leading Egypt on a very, very dangerous path toward combative, violent Islamic extremism. You know, there is simply no doubt of that.    My fear and what my testimony is today is that in the 3 years since then, I worry that the clamping down on civil society and human rights is making the situation--we are certainly not improving the situation.</t>
@@ -799,11 +769,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -823,13 +791,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -851,11 +817,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -877,11 +841,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -901,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -929,11 +889,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -953,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -981,11 +937,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1005,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1033,11 +985,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1057,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1085,11 +1033,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1111,11 +1057,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1135,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1163,11 +1105,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1187,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1215,11 +1153,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1239,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1267,11 +1201,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1293,11 +1225,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1317,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1345,11 +1273,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1369,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1395,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1421,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1447,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1473,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1499,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1527,11 +1441,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1551,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1577,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1605,11 +1513,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1629,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1657,11 +1561,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1681,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1709,11 +1609,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1733,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1759,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1785,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1811,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1837,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>58</v>
-      </c>
-      <c r="H42" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1865,11 +1753,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1889,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1915,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1941,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1967,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1993,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2019,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2045,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2071,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2097,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2123,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2149,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2175,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2201,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2227,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2253,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2279,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2305,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2331,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2357,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2383,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2409,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2435,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2461,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2487,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2513,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2539,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2565,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2591,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2617,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2643,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2669,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2695,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2721,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2747,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2773,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2799,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2825,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2851,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2877,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2903,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2929,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2955,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2981,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3007,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3033,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3059,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3085,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3111,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3137,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3163,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3189,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3215,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3241,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3267,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3293,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3319,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3345,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3371,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3397,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3423,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20455.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20455.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Mr. Deutch, the ranking member, for 5 minutes each for our opening statements, I will then recognize other members seeking recognition for 1 minute. We will then hear from our witnesses. And you will notice an empty seat, but she is coming right over, getting through security.    Without objection, the witnesses' prepared statements will be made a part of the record. Members may have 5 days to insert statements and questions for the record subject to the length limitation in the rules.    And the Chair now recognizes herself for 5 minutes.    This is the third hearing of our subcommittee that we have had on Egypt in a little over a year, demonstrating the importance of and our subcommittee's commitment to Egypt's role in a volatile region, as well as the concern of our members that they have on current U.S. policy toward our ally.    The political, economic, and security challenges that Egypt is facing right now, they are numerous, they are interdependent. It is extremely difficult, for example, for President Sisi to make necessary structural reforms to Egypt's economy without potentially undermining the fragile political support he is leaning on to bring much-needed stability to the country.    Conversely, if these economic reforms are not made soon, we may see a return of the unrest that we saw on Egyptian streets not too long ago. And it is in this context that Egypt is facing growing security threats from an expanding ISIS and its Sinai Province affiliate, from al-Qaeda-linked groups, from militias, from extremists in Libya, and from particularly violent factions of the Muslim Brotherhood. Sinai Province has formed terrorist cells that are targeting both Egyptian and Israeli military personnel and civilians, and has already killed hundreds of Egyptian soldiers is continuing to target the peacekeeping operations or the MFO, Multinational Force of Observers in the Sinai, prompting the Pentagon to reposition U.S. troops and reconsider its presence there.    There is more and more evidence that ISIS is attempting to link its operations in the Sinai and eastern Egypt to its presence in the Western Desert that sits along the extremely porous border with Libya. And there are growing reports of increased activity in southern Egypt and the Nile Valley, including in greater Cairo, which has seen IEDs and shootings like the one that claimed the lives of eight Egyptian policemen last month.    While Egypt has been trying to keep up with these threats, it is increasingly clear that Egypt must also adopt a counterinsurgency approach that will allow it to get a handle on the problem before it gets worse.    While the security situation remains a high priority, I am extremely concerned by the government's attitude toward human rights, its crackdowns on civil society, its quashing of dissent. I was disappointed to see that the government froze the assets of yet another NGO just yesterday as part of an ongoing case which began in 2011 and targeted U.S. NGOs like IRI, whose president joins us here today.    Forty-three NGO workers in this case were unjustly convicted in 2013, as we all remember, and I continue to call on President Sisi to do everything in his power, including working with the Egyptian Parliament and with the judicial system to find a way to pardon these workers as soon as possible. The government needs to find a way to open up civil society and allow Egyptians to participate and thrive in public life or risk exacerbating the very problems it is trying to avoid.    In Egypt, the economy is perhaps the biggest challenge of all. Infusions of cash from the Gulf States, especially from Saudi Arabia, as well as loans from the World Bank, the IMF, and others, have managed to keep the economy afloat for the time being. But these investments aren't likely to stimulate growth in the long term, and the government has to make difficult structural reforms like reducing the bloated public payroll and passing the long-promised value-added tax. Unemployment, especially among youth, remains high, and around 60 percent of the population is poor and living on subsidies.    One bright spot on the economy horizon has been the Egyptian-American Enterprise Fund, which Congress authorized in 2012 and has been successfully investing in Egypt's private sector to create jobs and support sustainable development.    The Enterprise Fund, as with all the aid that Congress has appropriated, is an example of how much the United States wants to help Egypt as both an ally and a strong supporter of peace in that troubled region. But the Egyptian Government also needs to help us help them, and that includes allowing our Economic Support Funds, or ESF monies, to be programmed. As of March 31, there is a backlog of approximately $900 million in ESF for Egypt because the government has held up permits for our implementing partners on everything from democracy and governance to education and health care.    That is why I was happy to sign a letter this month, alongside Chairman Royce, Ranking Member Engel, and the co-chairs of the Tunisia Caucus, asking the Secretary of State to reprogram up to $20 million of this money for Tunisia. This is not meant to be a slight against Egypt, but it makes little sense to continue letting these funds sit in the pipeline when they can be spent somewhere else. Someplace like Tunisia, which is in desperate need of the funds and is willing to let us help.    Egypt is an important strategic ally that is struggling on a number of fronts, and as we discuss the challenges and opportunities for U.S. policy here today, I continue to believe that the best way to help is through encouragement and assistance as a friend.    And with that, I am pleased to yield to the ranking member, Mr. Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you. Thank you, Madam Chairman, and thanks for our witnesses for appearing today.    First, I want to thank you, Madam Chairman, and Mr. Connolly for commissioning a series of GAO reports on our assistance to Egypt. The most recent report issued in April highlighted some of the serious challenges faced by Department of Defense and the Department of State in securing compliance from the Egyptian Government on end-use monitoring of our assistance. And I find this troubling. When we work together in partnership with the government, that government should not be hindering our ability to ensure that our assistance is going to where it is meant to go and doing what it is meant to do.    Second, I want to unequivocally state that I value the U.S.-Egypt relationship. I value Egypt's role in the region. I want to see the Egyptian people prosper. And I particularly want to thank the Egyptian Foreign Ministry for the condolences it sent to the victims of the horrific terror attack in the chairman and my home State just days ago.    But it is becoming increasingly difficult to discuss the U.S.-Egypt relationship outside its security context, and so while I have supported and I continue to support the Sisi government and the President's commitment to fighting terror and keeping peace in the region, I am quite troubled by the direction of the country when it comes to civil society and human rights. I do understand that it can be challenging to balance security and human rights.    Egypt is coming out of a period of great turmoil. As Egypt's leaders look around the region, they see numerous threats to stability, and there is no doubt that we share our Egyptian partners' commitment to preventing ISIS and its affiliates from dominating Sinai, but I urge our friends not to silence the discourse on human rights. Engage with civil society, democracy, and human right activists. Work together. Have the tough conversations. A lack of inclusive governing will yield greater instability.    One area I am deeply concerned about is the foreign funding of the NGOs' case. Now, this subcommittee has held many hearings on the arrest, trial, and conviction of the 43 NGO employees. Mr. Green, you have been present for several of those hearings. The idea that the government is now going to reopen the NGO trial and add new defendants is deeply disturbing. The only reason this case should be reopened is to pardon each and every one of the 43 individuals. And I want to commend the chair for continued advocacy on behalf of those who were so wrongfully convicted in this case.    President Sisi has been tasked with the difficult job of reviving Egypt's economy after years of mismanagement. I want to commend him for taking seriously recommendations for reform from the World Bank and the IMF. Last year, the economy grew at its fastest rate since 2010. Buoyed by generous financial support from the gulf, Egypt has found some economic relief. But diminished foreign currency reserves are making it increasingly difficult to import fuel and food, and water shortages are beginning to impact rural areas. The government must continue to work with international financial institutions to push ahead with necessary reforms to meet these challenges.    On the security front, Egypt faces dangerous threats from the Sinai. I commend the Egypt military for its commitment to rooting out terrorism and to taking seriously the need to improve government services and infrastructure for the people of Sinai.    I extend condolences to the dozens of Egyptian soldiers and their families who have lost their lives fighting this terrorism, and President Sisi deserves to be commended for speaking out against violent Islamic extremism.    In addition, I want to thank the Egyptian Government for its continued cooperation with Israel in the Sinai and its continuing efforts to prevent Hamas from using tunnels to smuggle dangerous weapons to Gaza.    President Sisi has made clear his interest in brokering peace between Israel and the Palestinians, and both have welcomed his involvement in the process with trust-building on both sides. He can be a strong voice for two states living side by side in peace and security.    Our $1.3 billion of security assistance to Egypt is critical in the fight against ISIS both in the Sinai and in Libya. The fragile political situation in Libya has created space for ISIS to use Libya as a training ground for its fighters. To that end, assisting Egypt in controlling its 1,100 kilometer border with Libya is essential to preventing ISIS fighters from launching cross-border attacks or using Egypt as a transit point to the greater Middle East.    I applaud the administration's recognition of the need to refocus our assistance on counterterrorism. The threats facing Egypt are not countered with tanks and planes alone but with a strong intelligence apparatus and regional and bilateral intelligence-sharing, and we have a real opportunity here to help Egypt confront and root out terrorism.    I want to see the people of Egypt succeed. I want to see the future of Egypt that so many millions poured into the streets demanding. I believe President Sisi wants his country and his people to thrive, but to do so will take real political will to confront terrorism to reform the economy and to give space for civil society to grow and to thrive. These are not easy tasks, nor are they accomplished without the support of the United States.    And I look to our witnesses today to help us better understand how we can be an effective partner for Egypt while continuing to advocate for the basic human rights and values that this country was founded upon. And with that, I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Madam Chairman, and thank you for our collaboration on the GAO report our friend Deutch cited.    I think, you know, the relationship with Egypt is a critical relationship. It has got to be one we work out. But American patience is not unlimited, and the Egyptian leverage on the relationship is also not unlimited. There is a desire in this country and a growing desire in this body to hold the current Egyptian Government accountable for human rights violations, accountable for security infringements, accountable for how it treats civil society, especially the NGOs we have worked with.    I met with a lot of those NGOs when I was in Cairo, and I think the Egyptian Government was counting on the United States once the Americans got out of the country to frankly wash their hands of the Egyptian staff and volunteers of these NGOs. That is not the case, and I hope this hearing makes that very clear. And I know Ambassador Green is going to make that point. We stand by those brave young men and women who were trying to make for a better society in their own country, and I know we are going to hear more about that in this hearing. Thank you, Madam Chairman.</t>
   </si>
   <si>
@@ -79,6 +100,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much for holding this hearing, and I appreciate you and the ranking member and the work that you have put into this.    Let me just note that I am a co-chairman with the Egyptian Caucus, and as such I have been to Egypt a number of times in recent days. And let me just state for the record that I believe that President el-Sisi and the democratic people in Egypt who want to have a legitimate democratic government are under attack by forces that would murder them.    So whatever we are doing when we are talking about Egypt, let's understand we are talking about people who are fighting forces that would murder them and create a caliphate that would be allied with terrorists. In fact, if President el-Sisi and his efforts are defeated, you could expect a collapse of resistance to this radical Islamic terrorist movement that threatens the world.    They are at an equivalent of where we were at immediately after Pearl Harbor. The fact is what did we do when we were under attack? Yes, there were things that we would never tolerate in our society today. We put large numbers of American citizens, Japanese-Americans in camps. Yes, that did not indicate what type of government, what type of country we had, but it did indicate that we were at war with an enemy that had murdered our own people and would continue to do so.    That is what is going on in Egypt today. Those people are on the front lines. President el-Sisi and his democratic allies and the moderate Muslim community there are under attack by the very same terrorists that would again create a caliphate and threaten the entire world. We have faced this terrorism here. We have faced it in Orlando. We have faced it in San Bernardino. We have faced it at the Boston Marathon.    This radical Islamic terrorism threat to the world is something that we need to recognize. And we need to recognize that people like President el-Sisi and the good people of Egypt are on the front lines, and we need to back them as much as we can so that we can--because we know if they lose, we lose.    Thank you very much, Madam Chairman.</t>
   </si>
   <si>
@@ -88,6 +112,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Madam Chair, I thank the witnesses for being here, and I would like to hear what they have to say so I yield back to you.</t>
   </si>
   <si>
@@ -97,6 +127,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. No comment.</t>
   </si>
   <si>
@@ -106,12 +142,18 @@
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Very good. Thank you, Ambassador Green.    Mr. Awad.</t>
   </si>
   <si>
+    <t>Awad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Awad. Madam Chairperson, Ranking Member Deutch, members of the subcommittee, thank you for this opportunity to be here to talk about security in Egypt. In fact, I have recently returned from a long research trip to that country where we have met with colleagues, top security officials, and went to areas like the Western Desert and Suez Canal area to see the situation there on the ground for ourselves. I am going to provide a threat assessment of the situation in Egypt with some relevant recommendations.    The most important thing to understand is that Egypt is facing what is the deadliest and most lethal, complex insurgency in its modern history. Since the Muslim Brotherhood was ousted from power in July 2013, at least 900 security service members lost their lives to an array of terrorist groups seeking to topple the government. The threat in Egypt comes from three different geographic theaters and three different types of groups.    First, there is northeastern Sinai where Islamic State-affiliated militants wage insurgency against the Egyptian Government and poses severe threat to Egypt and Israel.    The second is in the Nile Valley, the heart of Egypt, where 97 percent of the population lives. There, also Islamic State-affiliated elements, some al-Qaeda elements, although small in number, and other violent Islamist groups suspected to be affiliated with some members inside the Muslim Brotherhood, also seek to topple the government there.    Finally, the Western Desert with the vast border with Libya, the Islamic State is attempting to build a presence there.    Let me focus a little bit on the situation in Sinai. You will find in my written testimony detailed information on the Nile Valley and the Western Desert. The situation in the Sinai continues to be quite challenging. Since the fall of 2014, the local jihadist group called Ansar Bayt al-Maqdis, or the Champions or Supporters of Jerusalem, saw its capabilities increase significantly as it pledged allegiance to the Islamic State. Since then, they were able to launch large-scale defensives on the ground, culminating in a July 1, 2015, attack that attempted to hold parts of the city called Sheikh Zuweid in North Sinai. Only after a 12-hour-plus battle and the intervention of Egyptian F-16s was the jihadist threat neutralized.    Since then, Egyptians launched a massive counteroffensive that has had some successes. It should be noted that the jihadists in North Sinai do not control any population centers. Also, their areas of operation have largely been contained. Despite these successes, they have shifted their tactics and have used more IEDs and focused on terrorist attacks like the downing of the Russian airliner in October 2015. As a result, the first quarter of 2016 is the deadliest 3 months on record for Egyptian troops in North Sinai. The frequency of attacks has also increased, but again, they have not been back to the same quality of capabilities that they had prior to July.    Quickly, on the Nile Valley and the Western Desert, the most important things to understand there is that the situation is comparatively better compared to the Sinai. With that being said, although the government has had great successes in the Nile Valley, cracking down on some of the violent Islamists connected to the Muslim Brotherhood and al-Qaeda, the Islamic state has recently been attempting to bring armed insurgency closer to Cairo. However, these attempts have been thus far checked.    And finally, of course, in the Western Desert smugglers continue to operate, and as pressure increases against the Islamic State in Libya, they are more likely going to look more into the Western Desert to find ways to entrench themselves there.    Finally, let me offer some recommendations. I think for these reasons a continued security relationship with Egypt is of course important for U.S. strategic interests in the region. However, the relationship should reflect the changing nature of the challenges Egypt faces in confronting asymmetric threats from non-state actors and advance U.S. interests. The Obama administration announced that starting in Fiscal Year 2018 the U.S. will channel FMF funds toward procurement in four categories. Counterterrorism, border, maritime, and Sinai security is a good basis for the future of the FMF program. This pathway for updating U.S.-Egypt cooperation is sound and will require close coordination and support between Congress and the administration in order to implement it effectively.    The U.S.-Egypt relationship requires new anchors that go beyond security but also requires updating the security relationship. It should be built on mutual trust, respect, and frankness. The United States should encourage Cairo to implement a comprehensive counterinsurgency strategy in the Sinai that integrates technologies and training with economic development and tribal outreach in order to effectively defeat terrorist elements, all while minimizing collateral damage. Both governments should ensure that defense officials are able to discuss issues related to counterinsurgency frankly and be granted the access necessary to adequately provide training and assistance.    More cooperation is also needed with Egypt's General Intelligence Directorate and to the Ministry of Interior, specifically the State Security. These institutions are key actors in Egypt's fight against terror and thus warrant this further engagement.    Egypt should implement a comprehensive counterterrorism and countering violent extremism strategy that in part cracks down on human rights abuses and improves conditions in prisons to combat radicalization. All assistant should be on the basis of advancing U.S. interests in providing the necessary weapons and training that can help Egypt address its security challenges in ways that align with U.S. interests and values.    Finally, U. S. security cooperation and assistance with Egypt should be conditioned on Egypt's performance in the security field itself instead of political and economic reforms. I look forward to getting into more details in the Q&amp;A. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Mr. Awad, thank you so much.    Ms. Hawthorne.</t>
   </si>
   <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hawthorne. Good morning. Thank you, Madam Chair, Ranking Member Deutch, distinguished members of the committee. I am honored to be here today to testify alongside my esteemed colleagues.    I would also like to commend the chair and Congressman Connolly for their leadership on a series of crucially important GAO reports that have shed light on U.S. aid to Egypt and for the subcommittee's leadership on holding regular hearings on Egypt over the past few years.    With your permission, I will summarize the key points of my written testimony.</t>
   </si>
   <si>
@@ -166,6 +208,12 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairman, and----</t>
   </si>
   <si>
@@ -224,6 +272,12 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman. And I appreciate Chairman Ros-Lehtinen holding this hearing. I think that this is a very important subject.    And I agree with a lot of the concerns about what is going on in Egyptian society, but I also don't want to view the Muslim Brotherhood with any type of rose-colored glasses. I think that we should designate them as a foreign terrorist organization. We have passed it out of one House committee already, and it is awaiting Floor action. I think that they are not part of the solution in the Middle East but part of the problem.    So let me ask you, putting aside the problems that are going on in Egyptian society, Ambassador Green, is President el-Sisi a more reliable ally to the United States in combating Islamist terror than a Muslim Brotherhood-led government would be?    Ambassador Green. Thank you, Congressman. I am not sure I am qualified to comment necessarily on the security situation, but what I can comment on is very clearly former President Morsi and the Muslim Brotherhood were leading Egypt on a very, very dangerous path toward combative, violent Islamic extremism. You know, there is simply no doubt of that.    My fear and what my testimony is today is that in the 3 years since then, I worry that the clamping down on civil society and human rights is making the situation--we are certainly not improving the situation.</t>
@@ -719,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,2453 +803,2860 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>64</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
       <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>23</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>23</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>24</v>
+      </c>
+      <c r="I103" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20455.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20455.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Deutch</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>412272</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Connolly</t>
@@ -773,7 +785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +793,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,2857 +818,3060 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>45</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" t="s">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
-      </c>
-      <c r="G76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>45</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s">
-        <v>45</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>32</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>45</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>49</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>45</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>49</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>45</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>45</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>45</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>49</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>49</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G99" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>32</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G103" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I103" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="J103" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
